--- a/okCredit/src/resources/TestData.xlsx
+++ b/okCredit/src/resources/TestData.xlsx
@@ -11,37 +11,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>TestCase Name</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Source Currency</t>
-  </si>
-  <si>
-    <t>Destination Currency</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Ph</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Payment</t>
   </si>
   <si>
     <t>TC_01</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>GBP</t>
+    <t>English</t>
+  </si>
+  <si>
+    <t>7406764431</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Test User 1</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Test User 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -62,6 +89,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -102,6 +130,10 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -331,10 +363,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -356,21 +396,27 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -390,6 +436,48 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/okCredit/src/resources/TestData.xlsx
+++ b/okCredit/src/resources/TestData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -62,6 +62,63 @@
   </si>
   <si>
     <t>Test User 2</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Test User 3</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Hinglish</t>
+  </si>
+  <si>
+    <t>Test User 4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Test User 5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Test User 6</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Test User 7</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -119,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -134,6 +191,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -478,6 +538,216 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
